--- a/data/output/FV2304_FV2210/UTILMD/11147.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11147.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8810" uniqueCount="539">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8831" uniqueCount="539">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1792,6 +1792,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U404" totalsRowShown="0">
+  <autoFilter ref="A1:U404"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2081,7 +2111,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U404"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20744,5 +20777,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11147.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11147.xlsx
@@ -3403,7 +3403,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -5893,7 +5893,7 @@
         <v>497</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -6045,7 +6045,7 @@
         <v>497</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -6425,7 +6425,7 @@
         <v>499</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6955,7 +6955,7 @@
         <v>501</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -7093,7 +7093,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -7447,7 +7447,7 @@
         <v>503</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -7843,7 +7843,7 @@
         <v>504</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -8093,7 +8093,7 @@
         <v>506</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -8779,7 +8779,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8915,7 +8915,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -9281,7 +9281,7 @@
         <v>507</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -9419,7 +9419,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -9569,7 +9569,7 @@
         <v>508</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9815,7 +9815,7 @@
         <v>509</v>
       </c>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -10103,7 +10103,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -10819,7 +10819,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -11105,7 +11105,7 @@
         <v>511</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -11785,7 +11785,7 @@
         <v>513</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -11923,7 +11923,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -12075,7 +12075,7 @@
         <v>514</v>
       </c>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -12221,7 +12221,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -13381,7 +13381,7 @@
         <v>517</v>
       </c>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -14559,7 +14559,7 @@
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -14707,7 +14707,7 @@
         <v>518</v>
       </c>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -14915,7 +14915,7 @@
         <v>519</v>
       </c>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -15069,7 +15069,7 @@
         <v>519</v>
       </c>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -15275,7 +15275,7 @@
         <v>520</v>
       </c>
       <c r="L241" s="4"/>
-      <c r="M241" s="2" t="s">
+      <c r="M241" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N241" s="2" t="s">
@@ -15563,7 +15563,7 @@
         <v>521</v>
       </c>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="K250" s="2"/>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -15835,7 +15835,7 @@
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -15981,7 +15981,7 @@
         <v>521</v>
       </c>
       <c r="L256" s="4"/>
-      <c r="M256" s="2" t="s">
+      <c r="M256" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N256" s="2" t="s">
@@ -16119,7 +16119,7 @@
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="4"/>
-      <c r="M259" s="2" t="s">
+      <c r="M259" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N259" s="2" t="s">
@@ -16263,7 +16263,7 @@
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="4"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N262" s="2" t="s">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -16545,7 +16545,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -16749,7 +16749,7 @@
         <v>522</v>
       </c>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -16889,7 +16889,7 @@
         <v>523</v>
       </c>
       <c r="L275" s="4"/>
-      <c r="M275" s="2" t="s">
+      <c r="M275" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N275" s="2" t="s">
@@ -17149,7 +17149,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -17301,7 +17301,7 @@
         <v>525</v>
       </c>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -17455,7 +17455,7 @@
         <v>525</v>
       </c>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N286" s="2" t="s">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="K289" s="2"/>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -17807,7 +17807,7 @@
         <v>527</v>
       </c>
       <c r="L293" s="4"/>
-      <c r="M293" s="2" t="s">
+      <c r="M293" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N293" s="2" t="s">
@@ -18203,7 +18203,7 @@
         <v>528</v>
       </c>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -18453,7 +18453,7 @@
         <v>506</v>
       </c>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -18641,7 +18641,7 @@
         <v>529</v>
       </c>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -18975,7 +18975,7 @@
         <v>530</v>
       </c>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -19163,7 +19163,7 @@
         <v>531</v>
       </c>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -19409,7 +19409,7 @@
         <v>532</v>
       </c>
       <c r="L326" s="4"/>
-      <c r="M326" s="2" t="s">
+      <c r="M326" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N326" s="2" t="s">
@@ -19547,7 +19547,7 @@
       </c>
       <c r="K329" s="2"/>
       <c r="L329" s="4"/>
-      <c r="M329" s="2" t="s">
+      <c r="M329" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N329" s="2" t="s">
@@ -19691,7 +19691,7 @@
       </c>
       <c r="K332" s="2"/>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -19829,7 +19829,7 @@
         <v>533</v>
       </c>
       <c r="L335" s="4"/>
-      <c r="M335" s="2" t="s">
+      <c r="M335" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N335" s="2" t="s">
@@ -19977,7 +19977,7 @@
       </c>
       <c r="K338" s="2"/>
       <c r="L338" s="4"/>
-      <c r="M338" s="2" t="s">
+      <c r="M338" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N338" s="2" t="s">
@@ -20289,7 +20289,7 @@
         <v>535</v>
       </c>
       <c r="L344" s="4"/>
-      <c r="M344" s="2" t="s">
+      <c r="M344" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N344" s="2" t="s">
@@ -20427,7 +20427,7 @@
       </c>
       <c r="K347" s="2"/>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -20571,7 +20571,7 @@
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="4"/>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N350" s="2" t="s">
@@ -20707,7 +20707,7 @@
       </c>
       <c r="K353" s="2"/>
       <c r="L353" s="4"/>
-      <c r="M353" s="2" t="s">
+      <c r="M353" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N353" s="2" t="s">
@@ -20853,7 +20853,7 @@
       </c>
       <c r="K356" s="2"/>
       <c r="L356" s="4"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N356" s="2" t="s">
@@ -21219,7 +21219,7 @@
         <v>536</v>
       </c>
       <c r="L363" s="4"/>
-      <c r="M363" s="2" t="s">
+      <c r="M363" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N363" s="2" t="s">
@@ -21357,7 +21357,7 @@
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="4"/>
-      <c r="M366" s="2" t="s">
+      <c r="M366" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N366" s="2" t="s">
@@ -21501,7 +21501,7 @@
       </c>
       <c r="K369" s="2"/>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -21637,7 +21637,7 @@
       </c>
       <c r="K372" s="2"/>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -21783,7 +21783,7 @@
       </c>
       <c r="K375" s="2"/>
       <c r="L375" s="4"/>
-      <c r="M375" s="2" t="s">
+      <c r="M375" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N375" s="2" t="s">
@@ -21933,7 +21933,7 @@
         <v>537</v>
       </c>
       <c r="L378" s="4"/>
-      <c r="M378" s="2" t="s">
+      <c r="M378" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N378" s="2" t="s">
@@ -22205,7 +22205,7 @@
       </c>
       <c r="K384" s="2"/>
       <c r="L384" s="4"/>
-      <c r="M384" s="2" t="s">
+      <c r="M384" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N384" s="2" t="s">
@@ -22355,7 +22355,7 @@
         <v>539</v>
       </c>
       <c r="L387" s="4"/>
-      <c r="M387" s="2" t="s">
+      <c r="M387" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N387" s="2" t="s">
@@ -22493,7 +22493,7 @@
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="4"/>
-      <c r="M390" s="2" t="s">
+      <c r="M390" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N390" s="2" t="s">
@@ -22639,7 +22639,7 @@
       </c>
       <c r="K393" s="2"/>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -22787,7 +22787,7 @@
       </c>
       <c r="K396" s="2"/>
       <c r="L396" s="4"/>
-      <c r="M396" s="2" t="s">
+      <c r="M396" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N396" s="2" t="s">
@@ -22923,7 +22923,7 @@
       </c>
       <c r="K399" s="2"/>
       <c r="L399" s="4"/>
-      <c r="M399" s="2" t="s">
+      <c r="M399" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N399" s="2" t="s">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="K402" s="2"/>
       <c r="L402" s="4"/>
-      <c r="M402" s="2" t="s">
+      <c r="M402" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N402" s="2"/>
